--- a/Gallery/Plan/Sprint Shedule.xlsx
+++ b/Gallery/Plan/Sprint Shedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GIT\Gallery\Gallery\Plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A19E96-E6D2-4771-A040-BB4C10D8598C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560BFE4C-09EE-4042-B427-4142BF87CD89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{07FD617E-1F22-48B8-8149-48F21C3D4064}"/>
   </bookViews>
@@ -286,7 +286,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -297,6 +297,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
@@ -616,7 +617,7 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,6 +685,13 @@
         <f>E2-D2</f>
         <v>2</v>
       </c>
+      <c r="G2" s="2">
+        <v>43800</v>
+      </c>
+      <c r="H2" s="4">
+        <f>+G2+F2</f>
+        <v>43802</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -696,7 +704,6 @@
         <v>0</v>
       </c>
       <c r="D3" s="2">
-        <f>+E2+1</f>
         <v>43803</v>
       </c>
       <c r="E3" s="2">
@@ -707,6 +714,13 @@
         <f t="shared" ref="F3:F38" si="0">E3-D3</f>
         <v>2</v>
       </c>
+      <c r="G3" s="2">
+        <v>43803</v>
+      </c>
+      <c r="H3" s="4">
+        <f t="shared" ref="H3:H5" si="1">+G3+F3</f>
+        <v>43805</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -719,16 +733,22 @@
         <v>4</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D5" si="1">+E3+1</f>
         <v>43806</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" ref="E4:E5" si="2">+D4+2</f>
+        <f t="shared" ref="E4" si="2">+D4+2</f>
         <v>43808</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
         <v>2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>43806</v>
+      </c>
+      <c r="H4" s="4">
+        <f t="shared" si="1"/>
+        <v>43808</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -742,7 +762,6 @@
         <v>1</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" si="1"/>
         <v>43809</v>
       </c>
       <c r="E5" s="2">
@@ -752,6 +771,13 @@
       <c r="F5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
+      </c>
+      <c r="G5" s="2">
+        <v>43809</v>
+      </c>
+      <c r="H5" s="4">
+        <f t="shared" si="1"/>
+        <v>43812</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
